--- a/Materials for final assignment/sus sample.xlsx
+++ b/Materials for final assignment/sus sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\game hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\hardware-controller-game\Materials for final assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634179A8-E1A9-4B55-BE55-47FD8E2063D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7623C59-D4C0-4E56-A14C-4110B02837C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1047,10 +1047,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>436245</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>573405</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4371975" cy="2886075"/>
     <xdr:graphicFrame macro="">
@@ -2510,7 +2510,7 @@
   <dimension ref="A1:U1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
